--- a/Schnitzcells_structure.xlsx
+++ b/Schnitzcells_structure.xlsx
@@ -327,9 +327,6 @@
     <t>DJK_getCrossCor</t>
   </si>
   <si>
-    <t>DJK_plot_crosscorrelation_standard_error</t>
-  </si>
-  <si>
     <t>DJK_getCrossCov</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>DJK_plot_avColonyOverTime</t>
+  </si>
+  <si>
+    <t>DJK_plot_crosscorrelation_standard_error_store</t>
   </si>
 </sst>
 </file>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1767,8 +1767,8 @@
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="1" t="s">
-        <v>103</v>
+      <c r="A146" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -1783,7 +1783,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="C149" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -1793,7 +1793,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="D151" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J151" t="s">
         <v>19</v>
@@ -1801,12 +1801,12 @@
     </row>
     <row r="152" spans="1:10">
       <c r="D152" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="D153" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J153" t="s">
         <v>19</v>
@@ -1814,17 +1814,17 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="B155" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -1839,12 +1839,12 @@
     </row>
     <row r="159" spans="1:10">
       <c r="B159" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J160" t="s">
         <v>19</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="B161" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J161" t="s">
         <v>19</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="162" spans="1:10">
       <c r="B162" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J162"/>
     </row>
     <row r="163" spans="1:10">
       <c r="B163" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J163" t="s">
         <v>19</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G171" t="s">
         <v>46</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G174" t="s">
         <v>46</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G178" t="s">
         <v>46</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G182" t="s">
         <v>46</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G187" t="s">
         <v>46</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -2070,7 +2070,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="B199" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -2085,7 +2085,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="C202" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -2120,12 +2120,12 @@
     </row>
     <row r="209" spans="1:10">
       <c r="B209" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="C210" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -2151,7 +2151,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="B214" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -2166,12 +2166,12 @@
     </row>
     <row r="217" spans="1:10">
       <c r="C217" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="B218" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -2186,17 +2186,17 @@
     </row>
     <row r="221" spans="1:10">
       <c r="C221" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="B222" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -2231,7 +2231,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231" spans="1:2">

--- a/Schnitzcells_structure.xlsx
+++ b/Schnitzcells_structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="129">
   <si>
     <t>Philippe Nghe</t>
   </si>
@@ -30,15 +30,9 @@
     <t>DJK_schnitzfield</t>
   </si>
   <si>
-    <t>DJK_cropImages</t>
-  </si>
-  <si>
     <t>DJK_mkdir</t>
   </si>
   <si>
-    <t>PN_segmoviephase</t>
-  </si>
-  <si>
     <t>str3</t>
   </si>
   <si>
@@ -222,33 +216,18 @@
     <t>DJK_enlargeImage</t>
   </si>
   <si>
-    <t>DJK_getFluorShift</t>
-  </si>
-  <si>
-    <t>DJK_correctFluorImage</t>
-  </si>
-  <si>
     <t>DJK_imageShift</t>
   </si>
   <si>
-    <t>DJK_analyzeFluorBackground</t>
-  </si>
-  <si>
     <t>normalize</t>
   </si>
   <si>
-    <t>DJK_compileSchnitzImproved</t>
-  </si>
-  <si>
     <t>DJK_polyfit</t>
   </si>
   <si>
     <t>DJK_addToSchnitzes_length</t>
   </si>
   <si>
-    <t>DJK_addToSchnitzes_fluor</t>
-  </si>
-  <si>
     <t>normalizeElowitz</t>
   </si>
   <si>
@@ -363,24 +342,6 @@
     <t>func_Sxyr_composite_correct</t>
   </si>
   <si>
-    <t>DJK_cropImages_2colors</t>
-  </si>
-  <si>
-    <t>DJK_getFluorShift_red</t>
-  </si>
-  <si>
-    <t>DJK_correctFluorImage_red</t>
-  </si>
-  <si>
-    <t>DJK_analyzeFluorBackground_red</t>
-  </si>
-  <si>
-    <t>DJK_compileSchnitzImproved_2colors</t>
-  </si>
-  <si>
-    <t>DJK_addToSchnitzes_fluor_red</t>
-  </si>
-  <si>
     <t>DJK_trackcomplete</t>
   </si>
   <si>
@@ -415,13 +376,40 @@
   </si>
   <si>
     <t>DJK_plot_crosscorrelation_standard_error_store</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>PN_segmoviephase_3colors</t>
+  </si>
+  <si>
+    <t>DJK_getFluorShift_anycolor</t>
+  </si>
+  <si>
+    <t>DJK_correctFluorImage_anycolor</t>
+  </si>
+  <si>
+    <t>NW_initializeFluorData</t>
+  </si>
+  <si>
+    <t>DJK_analyzeFluorBackground_anycolor</t>
+  </si>
+  <si>
+    <t>DJK_compileSchnitzImproved_3colors</t>
+  </si>
+  <si>
+    <t>DJK_addToSchnitzes_fluor_anycolor</t>
+  </si>
+  <si>
+    <t>DJK_cropImages_3colors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,12 +428,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,14 +465,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -801,7 +784,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -812,16 +795,16 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -831,11 +814,11 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="G4" s="6">
+        <v>40925</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -843,39 +826,39 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6">
+        <v>40925</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -883,140 +866,140 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="6">
+        <v>40925</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="G15" s="6">
+        <v>40925</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
         <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1024,21 +1007,21 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1046,154 +1029,154 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="G26" s="6">
+        <v>40920</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="D28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1203,177 +1186,177 @@
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="C48" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H48"/>
     </row>
     <row r="49" spans="1:10">
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J57"/>
     </row>
     <row r="58" spans="1:10">
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10">
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10">
       <c r="D60" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10">
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10">
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="B64" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="C67" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="C68" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="C70" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="D71" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -1383,28 +1366,28 @@
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -1414,849 +1397,711 @@
     </row>
     <row r="79" spans="1:10">
       <c r="B79" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="B80" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="B84" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="B85" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="B87" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="C88" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>68</v>
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="G89" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H89" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="B90" s="1" t="s">
-        <v>3</v>
+      <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="G90" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H90" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="B91" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="1" t="s">
-        <v>69</v>
+      <c r="B92" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="B93" s="1" t="s">
-        <v>3</v>
+      <c r="A93" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="B94" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="B95" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="1" t="s">
-        <v>71</v>
+      <c r="B96" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="B97" s="1" t="s">
-        <v>3</v>
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G97" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H97" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="B98" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="B99" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J99" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="1" t="s">
-        <v>73</v>
+      <c r="B100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="B101" s="1" t="s">
-        <v>3</v>
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+      <c r="G101" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H101" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="B102" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="B103" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="B104" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="1" t="s">
-        <v>75</v>
+      <c r="B105" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="B106" s="1" t="s">
-        <v>3</v>
+      <c r="A106" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="B107" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="B108" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="1" t="s">
-        <v>76</v>
+      <c r="B109" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="B110" s="1" t="s">
-        <v>3</v>
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="G110" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H110" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="B111" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="B112" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J112" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="B113" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J113" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="B114" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="B115" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="B116" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="1" t="s">
-        <v>78</v>
+      <c r="B117" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="B118" s="1" t="s">
-        <v>3</v>
+      <c r="A118" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="B119" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="B120" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="B121" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J121" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="1" t="s">
-        <v>80</v>
+      <c r="B122" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="B123" s="1" t="s">
-        <v>3</v>
+      <c r="A123" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="1" t="s">
-        <v>81</v>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="B125" s="1" t="s">
-        <v>3</v>
+      <c r="A125" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="B126" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="B127" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="C128" s="1" t="s">
-        <v>83</v>
+      <c r="B128" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="C129" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="D130" s="1" t="s">
-        <v>97</v>
+      <c r="C130" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="B131"/>
       <c r="D131" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:4">
+      <c r="B132"/>
       <c r="D132" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1" t="s">
-        <v>86</v>
+      <c r="D133" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="B134" s="1" t="s">
-        <v>3</v>
+      <c r="A134" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
-        <v>87</v>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="B136" s="1" t="s">
-        <v>3</v>
+      <c r="A136" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="B137" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="1" t="s">
-        <v>98</v>
+      <c r="B140" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="B141" s="1" t="s">
-        <v>3</v>
+      <c r="A141" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="1" t="s">
-        <v>99</v>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="B143" s="1" t="s">
-        <v>3</v>
+      <c r="A143" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="1" t="s">
-        <v>101</v>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" t="s">
-        <v>132</v>
+      <c r="A146" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:10">
-      <c r="B147" s="1" t="s">
-        <v>102</v>
+      <c r="A147" t="s">
+        <v>119</v>
+      </c>
+      <c r="H147" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="C148" s="1" t="s">
-        <v>3</v>
+      <c r="B148" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="C149" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="D150" s="1" t="s">
-        <v>3</v>
+      <c r="C150" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="D151" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J151" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="D152" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="D153" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J153" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="1" t="s">
-        <v>107</v>
+      <c r="D154" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:10">
-      <c r="B155" s="1" t="s">
-        <v>108</v>
+      <c r="A155" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="1" t="s">
-        <v>109</v>
+      <c r="B156" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="B157" s="1" t="s">
-        <v>3</v>
+      <c r="A157" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="B158" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="B159" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J160" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="B161" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J161" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="B162" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J162"/>
+        <v>104</v>
+      </c>
+      <c r="J162" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="163" spans="1:10">
       <c r="B163" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J163" t="s">
-        <v>19</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J163"/>
     </row>
     <row r="164" spans="1:10">
       <c r="B164" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G167" t="s">
-        <v>46</v>
-      </c>
-      <c r="H167" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="B168" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
+      </c>
+      <c r="J164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="B165" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="B169" s="1" t="s">
-        <v>5</v>
+      <c r="A169" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="B170" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G171" t="s">
-        <v>46</v>
-      </c>
-      <c r="H171" t="s">
-        <v>18</v>
+      <c r="B171" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="B172" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173" spans="1:10">
-      <c r="B173" s="1" t="s">
-        <v>17</v>
+      <c r="C173" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="C175" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="C176" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="D177" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="D178" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="C179" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="D180" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="E181" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="B182" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10">
+      <c r="C183" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="C184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="B185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="B186" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="B187" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="C188" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10">
+      <c r="C189" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="C190" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="B191" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="C192" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="C193" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="C194" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G174" t="s">
-        <v>46</v>
-      </c>
-      <c r="H174" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="B175" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="B176" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="B177" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="1" t="s">
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="B199" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="B200" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="B202" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G178" t="s">
-        <v>46</v>
-      </c>
-      <c r="H178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="B179" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="B180" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" s="1" t="s">
+    </row>
+    <row r="204" spans="1:3">
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="B205" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="B206" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="B207" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G182" t="s">
-        <v>46</v>
-      </c>
-      <c r="H182" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="B183" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="B184" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="B185" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="B186" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G187" t="s">
-        <v>46</v>
-      </c>
-      <c r="H187" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="B188" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="B189" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="B191" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="B192" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="B193" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="B194" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="B197" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="B198" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="B199" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="C200" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="C201" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="C202" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="C203" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="D204" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="D205" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="C206" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="D207" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="E208" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="B209" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="C210" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="C211" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J211" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="B212" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J212" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="B213" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="B214" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="C215" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="C216" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="C217" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="B218" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
-      <c r="C219" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="C220" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="C221" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="B222" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
-      <c r="A223" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
-      <c r="B224" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="B225" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="B226" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="B227" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="B228" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="B229" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="B231" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="B232" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="B233" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="B234" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="B235" s="1" t="s">
-        <v>39</v>
+    <row r="208" spans="1:3">
+      <c r="B208" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Schnitzcells_structure.xlsx
+++ b/Schnitzcells_structure.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
   <si>
     <t>Philippe Nghe</t>
   </si>
   <si>
-    <t>29/11/2011</t>
-  </si>
-  <si>
     <t>DJK_initschnitz</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>max2</t>
   </si>
   <si>
-    <t>this function is a matlab function in recent versions</t>
-  </si>
-  <si>
     <t>DJK_hsv</t>
   </si>
   <si>
@@ -403,6 +397,12 @@
   </si>
   <si>
     <t>DJK_cropImages_3colors</t>
+  </si>
+  <si>
+    <t>17/01/2012</t>
+  </si>
+  <si>
+    <t>PN_FindBranchPoints</t>
   </si>
 </sst>
 </file>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="K165" sqref="K165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
@@ -795,16 +795,16 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -812,654 +812,650 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6">
         <v>40925</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="6">
         <v>40925</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="6">
         <v>40925</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6">
-        <v>40925</v>
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="C17" s="1" t="s">
-        <v>10</v>
+      <c r="C17" t="s">
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="1" t="s">
-        <v>11</v>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="6">
+        <v>40920</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="6">
-        <v>40920</v>
-      </c>
-      <c r="H26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" s="1" t="s">
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="J29"/>
     </row>
     <row r="30" spans="1:10">
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>26</v>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J32"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="D33" s="1" t="s">
-        <v>29</v>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="C35" s="1" t="s">
-        <v>30</v>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="D36" s="1" t="s">
-        <v>31</v>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="C38" s="1" t="s">
-        <v>32</v>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>34</v>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="1" t="s">
-        <v>3</v>
+      <c r="A43" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="C48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48"/>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="B49" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49"/>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="D53" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="D52" s="1" t="s">
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="B54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J54" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="C57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J57"/>
+      <c r="B57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="D58" s="1" t="s">
-        <v>87</v>
+      <c r="C58" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10">
       <c r="D59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10">
       <c r="D60" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="C61" s="1" t="s">
-        <v>29</v>
+      <c r="D61" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J62" t="s">
-        <v>17</v>
-      </c>
+      <c r="C62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62"/>
     </row>
     <row r="63" spans="1:10">
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="B64" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="C65" s="1" t="s">
-        <v>5</v>
+      <c r="B65" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="B66" s="1" t="s">
-        <v>51</v>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="C67" s="1" t="s">
-        <v>89</v>
+      <c r="B67" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="C68" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="C69" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="C71" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="B69" s="1" t="s">
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="D72" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="C70" s="1" t="s">
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="D71" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J75" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J76" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J76"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="1" t="s">
-        <v>58</v>
+      <c r="B77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="B78" s="1" t="s">
-        <v>3</v>
+      <c r="A78" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="B79" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="B80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J80" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="B81" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J81" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="B84" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="C88" s="1" t="s">
-        <v>64</v>
+      <c r="B88" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>124</v>
-      </c>
-      <c r="G89" s="7">
-        <v>40925</v>
-      </c>
-      <c r="H89" t="s">
-        <v>120</v>
+      <c r="C89" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -1470,638 +1466,645 @@
         <v>40925</v>
       </c>
       <c r="H90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="B91" s="1" t="s">
-        <v>3</v>
+      <c r="G91" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H91" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>123</v>
+      <c r="B93" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="B94" s="1" t="s">
-        <v>3</v>
+      <c r="A94" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="B95" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" s="7">
+      <c r="B97" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>123</v>
+      </c>
+      <c r="G98" s="7">
         <v>40925</v>
       </c>
-      <c r="H97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="B98" s="1" t="s">
-        <v>3</v>
+      <c r="H98" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="B99" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="B100" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J100" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" t="s">
-        <v>126</v>
-      </c>
-      <c r="G101" s="7">
+      <c r="B101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+      <c r="G102" s="7">
         <v>40925</v>
       </c>
-      <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="B102" s="1" t="s">
-        <v>3</v>
+      <c r="H102" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="B103" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="B104" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="1" t="s">
-        <v>69</v>
+      <c r="B106" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="B107" s="1" t="s">
-        <v>3</v>
+      <c r="A107" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="B108" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="B109" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>127</v>
-      </c>
-      <c r="G110" s="7">
+      <c r="B110" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="G111" s="7">
         <v>40925</v>
       </c>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="B111" s="1" t="s">
-        <v>3</v>
+      <c r="H111" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="B113" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="B114" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="B115" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="B116" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="B117" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="1" t="s">
-        <v>71</v>
+      <c r="B118" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="B119" s="1" t="s">
-        <v>3</v>
+      <c r="A119" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="B120" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="B121" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="B122" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="B123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="B125" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
         <v>72</v>
-      </c>
-      <c r="J122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="B124" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="B126" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="B127" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="C129" s="1" t="s">
-        <v>76</v>
+      <c r="B129" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="C130" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="C131" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="D132" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133"/>
+      <c r="D133" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="D134" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="D131" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="B132"/>
-      <c r="D132" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="D133" s="1" t="s">
+    <row r="136" spans="1:4">
+      <c r="B136" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="B135" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="B140" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1" t="s">
-        <v>91</v>
+      <c r="B141" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="B142" s="1" t="s">
-        <v>3</v>
+      <c r="A142" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="1" t="s">
-        <v>92</v>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="B144" s="1" t="s">
-        <v>3</v>
+      <c r="A144" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="1" t="s">
-        <v>94</v>
+      <c r="B145" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>117</v>
+      </c>
+      <c r="H148" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="B149" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" t="s">
-        <v>119</v>
-      </c>
-      <c r="H147" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="B148" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="C149" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="C150" s="1" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="D151" s="1" t="s">
-        <v>3</v>
+      <c r="C151" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="D152" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J152" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="D153" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="D154" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="D155" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="B157" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="1" t="s">
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="B156" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="B158" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="B159" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="B161" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J161" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="B162" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="B163" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J163"/>
+        <v>102</v>
+      </c>
+      <c r="J163" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="164" spans="1:10">
       <c r="B164" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J164" t="s">
-        <v>17</v>
-      </c>
+      <c r="J164"/>
     </row>
     <row r="165" spans="1:10">
       <c r="B165" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="J165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="B166" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="B170" s="1" t="s">
-        <v>82</v>
+      <c r="A170" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="B171" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="B172" s="1" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:10">
-      <c r="C173" s="1" t="s">
-        <v>82</v>
+      <c r="B173" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="C174" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="C175" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="C176" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="2:10">
-      <c r="D177" s="1" t="s">
-        <v>89</v>
+      <c r="C177" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="2:10">
       <c r="D178" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="D179" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="C180" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="D181" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="2:10">
-      <c r="C179" s="1" t="s">
+    <row r="182" spans="2:10">
+      <c r="E182" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="2:10">
-      <c r="D180" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10">
-      <c r="E181" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10">
-      <c r="B182" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="183" spans="2:10">
-      <c r="C183" s="1" t="s">
-        <v>112</v>
+      <c r="B183" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="2:10">
       <c r="C184" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J184" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="185" spans="2:10">
-      <c r="B185" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J185" t="s">
-        <v>26</v>
-      </c>
+      <c r="C185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J185"/>
     </row>
     <row r="186" spans="2:10">
       <c r="B186" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J186"/>
     </row>
     <row r="187" spans="2:10">
-      <c r="B187" t="s">
-        <v>114</v>
+      <c r="B187" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="2:10">
-      <c r="C188" s="1" t="s">
-        <v>29</v>
+      <c r="B188" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="2:10">
       <c r="C189" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="2:10">
       <c r="C190" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="191" spans="2:10">
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="192" spans="2:10">
-      <c r="C192" s="1" t="s">
-        <v>29</v>
+      <c r="B192" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="C193" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="C194" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="C195" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="B195" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="B197" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="B198" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="B199" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="B200" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="B201" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="B202" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1" t="s">
-        <v>118</v>
+      <c r="B203" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="B204" s="1" t="s">
-        <v>3</v>
+      <c r="A204" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="B205" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="B206" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="B207" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="B208" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Schnitzcells_structure.xlsx
+++ b/Schnitzcells_structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="130">
   <si>
     <t>Philippe Nghe</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>PN_FindBranchPoints</t>
+  </si>
+  <si>
+    <t>PN_reseed</t>
   </si>
 </sst>
 </file>
@@ -768,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1122,356 +1125,357 @@
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="6">
+        <v>40941</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="C34" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="D34" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="s">
-        <v>17</v>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="C36" s="1" t="s">
+    <row r="37" spans="1:10">
+      <c r="C37" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="D37" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="D39" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="C39" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="B44" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="C49" s="1" t="s">
+    <row r="50" spans="1:10">
+      <c r="C50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H50"/>
     </row>
     <row r="51" spans="1:10">
       <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="1:10">
+      <c r="C53" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="D53" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J55" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="C58" s="1" t="s">
+    <row r="59" spans="1:10">
+      <c r="C59" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="D59" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10">
       <c r="D60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10">
       <c r="D61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="D62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="C62" s="1" t="s">
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="C63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J63" t="s">
-        <v>16</v>
-      </c>
+      <c r="J63"/>
     </row>
     <row r="64" spans="1:10">
       <c r="B64" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="B66" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="C66" s="1" t="s">
+    <row r="67" spans="1:10">
+      <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:10">
+      <c r="B68" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="C68" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="C69" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="C70" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:10">
+      <c r="B71" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="C71" s="1" t="s">
+    <row r="72" spans="1:10">
+      <c r="C72" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="D72" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="B77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J78" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="B80" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="B81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J81" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J82" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="B84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="B85" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="B87" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="B89" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="1:10">
+      <c r="C90" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" t="s">
-        <v>122</v>
-      </c>
-      <c r="G90" s="7">
-        <v>40925</v>
-      </c>
-      <c r="H90" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G91" s="7">
         <v>40925</v>
@@ -1481,147 +1485,150 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="B92" s="1" t="s">
-        <v>2</v>
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+      <c r="G92" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H92" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="s">
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="B95" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="B98" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G99" s="7">
         <v>40925</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H99" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="B99" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="B100" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="B101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="B102" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J102" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
-      <c r="A102" t="s">
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
         <v>124</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G103" s="7">
         <v>40925</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H103" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="B103" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="B104" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="B105" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="B107" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:10">
+      <c r="A108" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="B108" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="B109" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="B110" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="B111" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" t="s">
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
         <v>125</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G112" s="7">
         <v>40925</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H112" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="B112" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="B113" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="B114" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="B115" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J115" t="s">
         <v>16</v>
@@ -1629,258 +1636,258 @@
     </row>
     <row r="116" spans="1:10">
       <c r="B116" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="B117" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="B118" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="B119" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="B120" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="B121" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="B122" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="B123" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="B124" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J124" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:10">
+      <c r="A125" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
-      <c r="B125" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="126" spans="1:10">
-      <c r="A126" t="s">
+      <c r="B126" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="B127" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="B130" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="C130" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="C131" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="C132" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="D132" s="1" t="s">
+    <row r="133" spans="1:4">
+      <c r="D133" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="B133"/>
-      <c r="D133" s="1" t="s">
+    <row r="134" spans="1:4">
+      <c r="B134"/>
+      <c r="D134" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="D134" s="1" t="s">
+    <row r="135" spans="1:4">
+      <c r="D135" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="B136" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="B140" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="B141" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
-      <c r="B145" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="1" t="s">
-        <v>92</v>
+      <c r="B146" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
-      <c r="A148" t="s">
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
         <v>117</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H149" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="1:10">
+      <c r="B150" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="C150" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="C151" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="C152" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="D152" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="D153" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J153" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="D154" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="D155" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="D156" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J156" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:10">
+      <c r="A157" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
-      <c r="B157" s="1" t="s">
+    <row r="158" spans="1:10">
+      <c r="B158" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:10">
+      <c r="A159" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="B159" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="B161" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="B162" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J162" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="B163" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J163" t="s">
         <v>16</v>
@@ -1888,222 +1895,230 @@
     </row>
     <row r="164" spans="1:10">
       <c r="B164" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J164"/>
+        <v>102</v>
+      </c>
+      <c r="J164" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="165" spans="1:10">
       <c r="B165" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J165" t="s">
-        <v>16</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J165"/>
     </row>
     <row r="166" spans="1:10">
       <c r="B166" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="B167" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:10">
+      <c r="A171" s="1" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="B171" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="B172" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="B174" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="C174" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="C175" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="C176" s="1" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="2:10">
       <c r="C177" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="C178" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10">
-      <c r="D178" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="179" spans="2:10">
       <c r="D179" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="D180" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="2:10">
-      <c r="C180" s="1" t="s">
+    <row r="181" spans="2:10">
+      <c r="C181" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="2:10">
-      <c r="D181" s="1" t="s">
+    <row r="182" spans="2:10">
+      <c r="D182" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="2:10">
-      <c r="E182" s="1" t="s">
+    <row r="183" spans="2:10">
+      <c r="E183" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="2:10">
-      <c r="B183" s="1" t="s">
+    <row r="184" spans="2:10">
+      <c r="B184" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10">
-      <c r="C184" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="185" spans="2:10">
       <c r="C185" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J185"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="186" spans="2:10">
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J186"/>
     </row>
     <row r="187" spans="2:10">
       <c r="B187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J187"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:10">
-      <c r="B188" t="s">
+    <row r="189" spans="2:10">
+      <c r="B189" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10">
-      <c r="C189" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="190" spans="2:10">
       <c r="C190" s="1" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="2:10">
       <c r="C191" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="C192" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="192" spans="2:10">
-      <c r="B192" s="1" t="s">
+    <row r="193" spans="1:3">
+      <c r="B193" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="C193" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="C194" s="1" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="C195" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="C196" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="B196" s="1" t="s">
+    <row r="197" spans="1:3">
+      <c r="B197" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="B198" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="B199" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="B200" s="1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="B201" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="B202" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="B203" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="B204" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1" t="s">
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="B205" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="B206" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="B207" s="1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="B208" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Schnitzcells_structure.xlsx
+++ b/Schnitzcells_structure.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="130">
-  <si>
-    <t>Philippe Nghe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="144">
   <si>
     <t>DJK_initschnitz</t>
   </si>
@@ -406,13 +403,58 @@
   </si>
   <si>
     <t>PN_reseed</t>
+  </si>
+  <si>
+    <t>Noreen Walker</t>
+  </si>
+  <si>
+    <t>full analysis</t>
+  </si>
+  <si>
+    <t>first analysis extra</t>
+  </si>
+  <si>
+    <t>NW_detectSlowSchnitzes</t>
+  </si>
+  <si>
+    <t>NW_addToBranchGroups_noise</t>
+  </si>
+  <si>
+    <t>NW_makeMovie_branchGroups</t>
+  </si>
+  <si>
+    <t>same as DJK_makeMovie</t>
+  </si>
+  <si>
+    <t>associate_frames_realtime</t>
+  </si>
+  <si>
+    <t>NW_addToSchnitzcells_noise</t>
+  </si>
+  <si>
+    <t>NW_plotCellCycleDependence</t>
+  </si>
+  <si>
+    <t>NW_plot-dependence-on-position</t>
+  </si>
+  <si>
+    <t>text2im</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>NW_testBinningCellCycle</t>
+  </si>
+  <si>
+    <t>NW_correctCellCycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,8 +477,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +505,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -468,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,6 +533,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,1339 +847,1556 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>127</v>
+        <v>43</v>
+      </c>
+      <c r="G1" s="8">
+        <v>40997</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="H3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>40925</v>
       </c>
-      <c r="H4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="6">
         <v>40925</v>
       </c>
-      <c r="H8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
+      <c r="H10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11"/>
-      <c r="J11"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="6">
-        <v>40925</v>
-      </c>
-      <c r="H12" t="s">
-        <v>118</v>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G13"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="6">
+        <v>40925</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="C16" s="1" t="s">
-        <v>7</v>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16"/>
-      <c r="J16" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="C17" t="s">
-        <v>128</v>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J22"/>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="6">
+        <v>40920</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="6">
-        <v>40920</v>
-      </c>
-      <c r="H27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="C28" s="1" t="s">
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="D29" t="s">
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="C32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="6">
-        <v>40941</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="6">
+        <v>40997</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="D36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="C37" s="1" t="s">
-        <v>28</v>
+      <c r="H37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="D39" s="1" t="s">
-        <v>23</v>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="C40" s="1" t="s">
-        <v>30</v>
+      <c r="D40" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="C41" s="1" t="s">
-        <v>81</v>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>32</v>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="B45" s="1" t="s">
-        <v>2</v>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="1" t="s">
-        <v>14</v>
+      <c r="A46" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="B49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="C50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50"/>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="C52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="B52" s="1" t="s">
+    <row r="55" spans="1:10">
+      <c r="C55" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="C53" s="1" t="s">
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="D56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="D54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="B56" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="B57" s="1" t="s">
-        <v>4</v>
+      <c r="A57" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="C59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59"/>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="D60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J60"/>
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="D61" s="1" t="s">
-        <v>84</v>
+      <c r="C61" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10">
       <c r="D62" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="C63" s="1" t="s">
-        <v>27</v>
+      <c r="D63" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J63"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="B64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J64" t="s">
-        <v>16</v>
-      </c>
+      <c r="D64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="B65" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65"/>
     </row>
     <row r="66" spans="1:10">
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="C67" s="1" t="s">
-        <v>4</v>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="B68" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="C69" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="C70" s="1" t="s">
-        <v>50</v>
+      <c r="B70" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="B71" s="1" t="s">
-        <v>51</v>
+      <c r="C71" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="C72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="D75" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="D73" s="1" t="s">
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="B77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
       <c r="B78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79"/>
     </row>
     <row r="80" spans="1:10">
       <c r="B80" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="B81" s="1" t="s">
-        <v>14</v>
+      <c r="A81" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J82" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="J84" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="J85" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="B89" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="G91" s="7">
+    <row r="92" spans="1:10">
+      <c r="C92" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" s="7">
         <v>40925</v>
       </c>
-      <c r="H91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" s="7">
+      <c r="H93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="G94" s="7">
         <v>40925</v>
       </c>
-      <c r="H92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="B93" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="B94" s="1" t="s">
-        <v>14</v>
+      <c r="H94" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>121</v>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="B97" s="1" t="s">
-        <v>14</v>
+      <c r="A97" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="B98" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" t="s">
-        <v>123</v>
-      </c>
-      <c r="G99" s="7">
-        <v>40925</v>
-      </c>
-      <c r="H99" t="s">
-        <v>118</v>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="B100" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="B101" s="1" t="s">
-        <v>14</v>
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="G101" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H101" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="B102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J102" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" t="s">
-        <v>124</v>
-      </c>
-      <c r="G103" s="7">
-        <v>40925</v>
-      </c>
-      <c r="H103" t="s">
-        <v>118</v>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="B104" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="B105" s="1" t="s">
-        <v>14</v>
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H105" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="B106" s="1" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="B107" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="1" t="s">
-        <v>67</v>
+      <c r="B108" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="B109" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="B110" s="1" t="s">
-        <v>14</v>
+      <c r="A110" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" s="7">
-        <v>40925</v>
-      </c>
-      <c r="H112" t="s">
-        <v>118</v>
+      <c r="B112" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="B113" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="B114" s="1" t="s">
-        <v>14</v>
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="G114" s="7">
+        <v>40925</v>
+      </c>
+      <c r="H114" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="B115" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J115" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="B116" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="B117" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="J117" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="B118" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="J118" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="B119" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="1" t="s">
-        <v>69</v>
+      <c r="B120" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="B121" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="B122" s="1" t="s">
-        <v>14</v>
+      <c r="A122" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="B123" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="B124" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J124" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="1" t="s">
-        <v>71</v>
+      <c r="B125" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="B126" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="J126" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" t="s">
-        <v>72</v>
+      <c r="A127" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="B129" s="1" t="s">
-        <v>14</v>
+      <c r="A129" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="C133" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="C131" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="C132" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="D133" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="134" spans="1:4">
-      <c r="B134"/>
-      <c r="D134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="D135" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="1" t="s">
-        <v>77</v>
+      <c r="B136"/>
+      <c r="D136" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="B137" s="1" t="s">
-        <v>2</v>
+      <c r="D137" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="B140" s="1" t="s">
-        <v>14</v>
+      <c r="A140" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="B141" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="1" t="s">
-        <v>89</v>
+      <c r="B143" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="B146" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>116</v>
+      </c>
+      <c r="G151" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H151" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="B152" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="A149" t="s">
-        <v>117</v>
-      </c>
-      <c r="H149" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="B150" s="1" t="s">
+    <row r="153" spans="1:10">
+      <c r="C153" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="C154" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="C151" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="C152" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="D153" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="D154" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J154" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="D155" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="D156" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="1" t="s">
-        <v>98</v>
+      <c r="D157" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="B158" s="1" t="s">
-        <v>99</v>
+      <c r="D158" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J158" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:10">
-      <c r="B161" s="1" t="s">
-        <v>14</v>
+      <c r="A161" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="B162" s="1" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="B163" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J163" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="B164" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J164" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="B165" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J165"/>
+        <v>100</v>
+      </c>
+      <c r="J165" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="166" spans="1:10">
       <c r="B166" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="B167" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J167"/>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="B168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="B169" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>132</v>
+      </c>
+      <c r="G172" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H172" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="B177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>133</v>
+      </c>
+      <c r="G180" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H180" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
+        <v>134</v>
+      </c>
+      <c r="G183" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H183" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="B184" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="B185" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G185" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H185" t="s">
+        <v>117</v>
+      </c>
+      <c r="J185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="B186" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H186" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G190" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H190" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="C192" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="C193" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
+        <v>138</v>
+      </c>
+      <c r="G195" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H195" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="B197" t="s">
+        <v>69</v>
+      </c>
+      <c r="J197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
+        <v>142</v>
+      </c>
+      <c r="G199" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H199" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="B201" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="B202" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
+        <v>143</v>
+      </c>
+      <c r="G204" s="7">
+        <v>40997</v>
+      </c>
+      <c r="H204" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="B205" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10">
+      <c r="A340" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J340" s="10"/>
+    </row>
+    <row r="341" spans="1:10">
+      <c r="A341" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B341" s="9"/>
+      <c r="C341" s="9"/>
+      <c r="D341" s="9"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="9"/>
+      <c r="G341" s="10"/>
+      <c r="H341" s="10"/>
+      <c r="I341" s="10"/>
+    </row>
+    <row r="343" spans="1:10">
+      <c r="B343" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10">
+      <c r="B344" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10">
+      <c r="B345" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
-      <c r="B172" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="B173" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="B174" s="1" t="s">
+    <row r="346" spans="1:10">
+      <c r="C346" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="C347" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="C348" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
-      <c r="C175" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="C176" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10">
-      <c r="C177" s="1" t="s">
+    <row r="349" spans="1:10">
+      <c r="C349" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10">
+      <c r="D350" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10">
+      <c r="D351" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10">
+      <c r="C352" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10">
+      <c r="D353" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10">
+      <c r="E354" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10">
+      <c r="B355" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="2:10">
-      <c r="C178" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10">
-      <c r="D179" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10">
-      <c r="D180" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10">
-      <c r="C181" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10">
-      <c r="D182" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10">
-      <c r="E183" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10">
-      <c r="B184" s="1" t="s">
+    <row r="356" spans="1:10">
+      <c r="C356" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="185" spans="2:10">
-      <c r="C185" s="1" t="s">
+      <c r="J356"/>
+    </row>
+    <row r="357" spans="1:10">
+      <c r="C357" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J357"/>
+    </row>
+    <row r="358" spans="1:10">
+      <c r="B358" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10">
+      <c r="B359" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10">
+      <c r="B360" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10">
+      <c r="C361" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="C362" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
+      <c r="C363" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
+      <c r="B364" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="186" spans="2:10">
-      <c r="C186" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J186"/>
-    </row>
-    <row r="187" spans="2:10">
-      <c r="B187" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J187"/>
-    </row>
-    <row r="188" spans="2:10">
-      <c r="B188" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10">
-      <c r="B189" t="s">
+    <row r="365" spans="1:10">
+      <c r="C365" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
+      <c r="C366" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="C367" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="190" spans="2:10">
-      <c r="C190" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10">
-      <c r="C191" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10">
-      <c r="C192" s="1" t="s">
+    <row r="368" spans="1:10">
+      <c r="A368" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="B193" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="C194" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="C195" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="C196" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="B197" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1" t="s">
+    <row r="370" spans="1:2">
+      <c r="B370" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="B371" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="B372" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="B373" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="B374" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="B199" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="B200" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="B201" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="B202" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="B203" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="B204" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="B206" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="B207" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="B208" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="1" t="s">
-        <v>35</v>
+    <row r="377" spans="1:2">
+      <c r="B377" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="B378" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="B379" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="B380" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="B381" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
